--- a/data/trans_camb/P1419-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P1419-Estudios-trans_camb.xlsx
@@ -664,7 +664,7 @@
         <v>-4.340618535235407</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>1.287128496466437</v>
+        <v>1.287128496466432</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-4.633253887687791</v>
+        <v>-4.56333827852326</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-4.48728551101994</v>
+        <v>-4.49470351297009</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.6274144728813388</v>
+        <v>-0.6153957940308715</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-5.928769992582864</v>
+        <v>-5.745935033656765</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-8.827713060828467</v>
+        <v>-8.976968407528489</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-2.517302298595705</v>
+        <v>-2.412311035417864</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-4.662458136184217</v>
+        <v>-4.748534903253383</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-6.288966778313506</v>
+        <v>-6.128758086437339</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-0.8445592781550404</v>
+        <v>-0.5808691567530809</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-1.271101480133445</v>
+        <v>-1.263488587556931</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-1.05085751544424</v>
+        <v>-1.031959238024736</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.981005304252944</v>
+        <v>4.173880652698412</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-0.2889672306867443</v>
+        <v>-0.2114359878755956</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>-2.672945756441605</v>
+        <v>-3.002950698494532</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>3.272983578811454</v>
+        <v>3.360164529371359</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>-0.9320573456945341</v>
+        <v>-0.9963392562892568</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>-2.53662515806248</v>
+        <v>-2.433661984031939</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>3.387929438368119</v>
+        <v>3.227122440750847</v>
       </c>
     </row>
     <row r="7">
@@ -769,7 +769,7 @@
         <v>-0.3603577267085159</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.1068572820217293</v>
+        <v>0.1068572820217288</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.7501753677613782</v>
+        <v>-0.7443248564418632</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.728298972853222</v>
+        <v>-0.7353857788772588</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.1136913077968467</v>
+        <v>-0.1283587947218939</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.3132228430651166</v>
+        <v>-0.3139181605600488</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.4548620369071576</v>
+        <v>-0.4726429867248488</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1330340759351286</v>
+        <v>-0.1314910555651887</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.3586712576501166</v>
+        <v>-0.3631536230384353</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.4799617316117024</v>
+        <v>-0.4834184054682281</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.06556101277215311</v>
+        <v>-0.04579590409214817</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>-0.2753338462397003</v>
+        <v>-0.2812429036373312</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.2194656039259712</v>
+        <v>-0.2102190134191618</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.9084773545401181</v>
+        <v>0.9955103891526625</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>-0.01812808470891892</v>
+        <v>-0.01297776869465404</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.1455426932998945</v>
+        <v>-0.1745240626913035</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.204105774491165</v>
+        <v>0.2102585963455132</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.08058874695428919</v>
+        <v>-0.08824536872786727</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.2206716459300549</v>
+        <v>-0.2180479519405521</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.3053016629188893</v>
+        <v>0.2939022996186218</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>-2.291735963795986</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>2.913976619176045</v>
+        <v>2.913976619176044</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>-1.348036117805115</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.030955469307054</v>
+        <v>-2.095134962066865</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.615137551352288</v>
+        <v>-1.7205801310296</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3139521827891089</v>
+        <v>0.4938882127812992</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-3.057105256728705</v>
+        <v>-3.142900297116208</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-3.975217355539989</v>
+        <v>-3.933851584113055</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>1.317063053701534</v>
+        <v>1.150321027351553</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-2.272844630438571</v>
+        <v>-2.25763747661247</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-2.406886469433593</v>
+        <v>-2.322781128308207</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>1.273843034365316</v>
+        <v>1.237818343916457</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-0.3843261676058839</v>
+        <v>-0.4379606848575428</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1887378602799865</v>
+        <v>0.06235041254801009</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.521315958615263</v>
+        <v>2.520490911813468</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2233026788868503</v>
+        <v>0.1612024932113287</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-0.8001279299031671</v>
+        <v>-0.7187966210047677</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>4.534427843043668</v>
+        <v>4.501397649639928</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>-0.2878587991765058</v>
+        <v>-0.3980573584051791</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-0.5778608984305849</v>
+        <v>-0.6180860706227459</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>3.170686049186414</v>
+        <v>3.150053048442553</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>-0.3463786914343536</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.7108080551203348</v>
+        <v>0.7108080551203345</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>-0.2132360705911922</v>
@@ -974,7 +974,7 @@
         <v>-0.3458192140225188</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4397143126620516</v>
+        <v>0.4397143126620514</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>-0.3164153832733634</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.7773789211834929</v>
+        <v>-0.7822724937223314</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.6206780448817828</v>
+        <v>-0.6211956460132989</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.1029704396023279</v>
+        <v>0.1660090831977743</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.4118015476025148</v>
+        <v>-0.4141832039780131</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.5134325287923694</v>
+        <v>-0.5198064023723362</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1730137111546895</v>
+        <v>0.1401644889599734</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.4761496007838334</v>
+        <v>-0.4764205586665826</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.4991738135400255</v>
+        <v>-0.4924113158747057</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.2612563117469404</v>
+        <v>0.2546486931775331</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>-0.1938450907077233</v>
+        <v>-0.2310872797824651</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.1307438604239129</v>
+        <v>0.09439673096794371</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.687350507467388</v>
+        <v>1.67589583061948</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.03980806004535439</v>
+        <v>0.02875319786787495</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.1275215775074275</v>
+        <v>-0.1185927299667909</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.8080433336766799</v>
+        <v>0.7891537788086769</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.0772396670087796</v>
+        <v>-0.1026234295215148</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.1441180506658051</v>
+        <v>-0.1645503682706979</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.8649284740166283</v>
+        <v>0.8397714383505263</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>-3.306508873724602</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.5919907950095754</v>
+        <v>0.5919907950095769</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>-2.197600826175965</v>
@@ -1092,7 +1092,7 @@
         <v>-1.982188354991133</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>0.6961684061305831</v>
+        <v>0.6961684061305845</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-3.103965250606205</v>
+        <v>-3.347372024231571</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.604491555929578</v>
+        <v>-2.519419023527046</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.315748871246584</v>
+        <v>-1.444358245603542</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-5.719555010689817</v>
+        <v>-5.847254108880182</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-6.382284391921922</v>
+        <v>-6.062091451777305</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-2.369294684668573</v>
+        <v>-2.117320442460188</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-3.687306023132096</v>
+        <v>-3.711621436750186</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-3.659294020328453</v>
+        <v>-3.605981670299821</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-0.98342654924618</v>
+        <v>-0.9985111474479202</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-0.1989993250723815</v>
+        <v>-0.3006313680871473</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.6299135856953889</v>
+        <v>0.5976767254686879</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.072050764520043</v>
+        <v>1.875075777807461</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-0.3166616345179844</v>
+        <v>-0.3050347512693821</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>-0.7278115366095608</v>
+        <v>-0.6550466193935025</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>3.076170365756882</v>
+        <v>3.336148217124873</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>-0.7354364299552769</v>
+        <v>-0.6837072841752607</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>-0.4383918334934738</v>
+        <v>-0.4416867914480344</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>2.205771536894334</v>
+        <v>2.212435186172094</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>-0.5374513301934507</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.09622422089004641</v>
+        <v>0.09622422089004663</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>-0.551618298658254</v>
@@ -1197,7 +1197,7 @@
         <v>-0.497547759800879</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.174744761284792</v>
+        <v>0.1747447612847924</v>
       </c>
     </row>
     <row r="20">
@@ -1211,28 +1211,28 @@
         <v>-1</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.8652805208950287</v>
+        <v>-0.8613411832781352</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.4637603160506251</v>
+        <v>-0.445872769644884</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.7260432551514027</v>
+        <v>-0.7277598043561426</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.7821177278622112</v>
+        <v>-0.7694461418938786</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.2905365544331203</v>
+        <v>-0.2578511898787842</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.7540263473658428</v>
+        <v>-0.7763658617081948</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.7197938138507776</v>
+        <v>-0.7428540630500206</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.2034073715513905</v>
+        <v>-0.1999656118750569</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.189830164891065</v>
+        <v>0.6535825717679162</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.7398528552716238</v>
+        <v>0.5954311356785117</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.901031404928583</v>
+        <v>1.488041977902015</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>-0.0176133111164791</v>
+        <v>-0.03159523879994558</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.1349044646660117</v>
+        <v>-0.1061382148604555</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.6979138360010716</v>
+        <v>0.7791982774102834</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>-0.1840363512064662</v>
+        <v>-0.2110925648076813</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.08862706273415885</v>
+        <v>-0.1193301953645178</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.7069576048261363</v>
+        <v>0.7312451291608565</v>
       </c>
     </row>
     <row r="22">
@@ -1306,7 +1306,7 @@
         <v>-3.046448706371756</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>0.4785281238692318</v>
+        <v>0.478528123869229</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-2.582405445507318</v>
+        <v>-2.530017197474713</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-2.155454061933133</v>
+        <v>-2.251185556530223</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.01197815037872365</v>
+        <v>-0.08940883509088932</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-3.798829272739743</v>
+        <v>-3.789230977002092</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-5.968560702869442</v>
+        <v>-5.869621489858149</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-1.317197989059378</v>
+        <v>-1.162450869879154</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-2.916834335293456</v>
+        <v>-3.008113470490233</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-3.934290889996408</v>
+        <v>-3.921157997590018</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-0.3413112130112053</v>
+        <v>-0.2882752088904716</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-1.14258187910129</v>
+        <v>-1.113145568830755</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-0.7467031214855011</v>
+        <v>-0.690187770276503</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.633694522630205</v>
+        <v>1.672442874133316</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>-0.8805550982205553</v>
+        <v>-0.9104321104377873</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-3.273321293797175</v>
+        <v>-3.169835212775387</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>1.429229303084934</v>
+        <v>1.440257059064745</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>-1.294730062877463</v>
+        <v>-1.278256473689148</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-2.248975561700327</v>
+        <v>-2.24200739745909</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>1.266065945064012</v>
+        <v>1.30346044610324</v>
       </c>
     </row>
     <row r="25">
@@ -1411,7 +1411,7 @@
         <v>-0.4375412565675232</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.0687278260036764</v>
+        <v>0.068727826003676</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.7329028241008462</v>
+        <v>-0.7257446858856046</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.6348612031625335</v>
+        <v>-0.6498792056506325</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.002106434258529852</v>
+        <v>-0.0263225843479452</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.3300244129152532</v>
+        <v>-0.3237241092109442</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.5229105711394011</v>
+        <v>-0.5106735368371126</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.1128379386992655</v>
+        <v>-0.1014552514537121</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.3907865578627642</v>
+        <v>-0.3993309077201811</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.525343026112147</v>
+        <v>-0.5247945551005733</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.04446246533114639</v>
+        <v>-0.03767375297420446</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-0.4272574965739289</v>
+        <v>-0.4131684977999842</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.2756168502984975</v>
+        <v>-0.2656755416732192</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.6162754450991503</v>
+        <v>0.6367430741866336</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>-0.08702566057119232</v>
+        <v>-0.08748164354717805</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.3206551892984399</v>
+        <v>-0.3153627594229485</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1430191500565912</v>
+        <v>0.1442866832867105</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>-0.1952390045681858</v>
+        <v>-0.1956882330711297</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.3401208420110974</v>
+        <v>-0.3414675049157261</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.1967075879113127</v>
+        <v>0.2032014465773435</v>
       </c>
     </row>
     <row r="28">
